--- a/ufcfightstats30int.xlsx
+++ b/ufcfightstats30int.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samnewga\PycharmProjects\MLfinalSC1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NewGa\PycharmProjects\MLfinalSC1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0F40D34-72FC-42B0-AF7E-A9ADCC4930FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EBCB98-06A4-4BE8-AA92-3038CDBA6510}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="12200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28785" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ufcfightstats30" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
   <si>
     <t>id</t>
   </si>
@@ -269,6 +269,60 @@
   </si>
   <si>
     <t>alex oliveira</t>
+  </si>
+  <si>
+    <t>dustin poirier</t>
+  </si>
+  <si>
+    <t>kelvin gastelum</t>
+  </si>
+  <si>
+    <t>eryk anders</t>
+  </si>
+  <si>
+    <t>khalil rountree jr</t>
+  </si>
+  <si>
+    <t>alan jouban</t>
+  </si>
+  <si>
+    <t>dwight grant</t>
+  </si>
+  <si>
+    <t>ovince saint preux</t>
+  </si>
+  <si>
+    <t>nikita krylov</t>
+  </si>
+  <si>
+    <t>jalin turner</t>
+  </si>
+  <si>
+    <t>matt frevola</t>
+  </si>
+  <si>
+    <t>wilson reis</t>
+  </si>
+  <si>
+    <t>alxandre pantoja</t>
+  </si>
+  <si>
+    <t>max griffin</t>
+  </si>
+  <si>
+    <t>zelim imadaev</t>
+  </si>
+  <si>
+    <t>boston salmon</t>
+  </si>
+  <si>
+    <t>khalid taha</t>
+  </si>
+  <si>
+    <t>curtis millender</t>
+  </si>
+  <si>
+    <t>belal muhammad</t>
   </si>
 </sst>
 </file>
@@ -1109,15 +1163,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y31" sqref="Y31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1271,7 +1328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1348,7 +1405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1425,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1502,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1579,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1656,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1733,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1810,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1887,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1964,7 +2021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2041,7 +2098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2118,7 +2175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2195,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2272,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2349,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2426,7 +2483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2503,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2580,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2657,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2734,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2811,7 +2868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2888,7 +2945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2965,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3042,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3119,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3196,7 +3253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3273,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3350,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3427,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3502,6 +3559,776 @@
       </c>
       <c r="Y31">
         <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>416</v>
+      </c>
+      <c r="F32">
+        <v>360</v>
+      </c>
+      <c r="G32">
+        <v>362</v>
+      </c>
+      <c r="H32">
+        <v>356</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>2</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>184</v>
+      </c>
+      <c r="F33">
+        <v>238</v>
+      </c>
+      <c r="G33">
+        <v>182</v>
+      </c>
+      <c r="H33">
+        <v>218</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>8</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>4</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>2</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>2</v>
+      </c>
+      <c r="T33">
+        <v>2</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>38</v>
+      </c>
+      <c r="F34">
+        <v>166</v>
+      </c>
+      <c r="G34">
+        <v>32</v>
+      </c>
+      <c r="H34">
+        <v>158</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>8</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <v>2</v>
+      </c>
+      <c r="U34">
+        <v>2</v>
+      </c>
+      <c r="V34">
+        <v>2</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>2</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>50</v>
+      </c>
+      <c r="F35">
+        <v>78</v>
+      </c>
+      <c r="G35">
+        <v>48</v>
+      </c>
+      <c r="H35">
+        <v>76</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>16</v>
+      </c>
+      <c r="F36">
+        <v>120</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+      <c r="H36">
+        <v>54</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>8</v>
+      </c>
+      <c r="Q36">
+        <v>2</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>2</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>2</v>
+      </c>
+      <c r="Y36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>84</v>
+      </c>
+      <c r="F37">
+        <v>98</v>
+      </c>
+      <c r="G37">
+        <v>70</v>
+      </c>
+      <c r="H37">
+        <v>62</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37">
+        <v>4</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>2</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>3</v>
+      </c>
+      <c r="Y37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>52</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>46</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>2</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>144</v>
+      </c>
+      <c r="F39">
+        <v>156</v>
+      </c>
+      <c r="G39">
+        <v>94</v>
+      </c>
+      <c r="H39">
+        <v>128</v>
+      </c>
+      <c r="I39">
+        <v>12</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>6</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>10</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39">
+        <v>2</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>2</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>2</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="F41">
+        <v>252</v>
+      </c>
+      <c r="G41">
+        <v>96</v>
+      </c>
+      <c r="H41">
+        <v>94</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>2</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
